--- a/rejected.xlsx
+++ b/rejected.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
   <si>
     <t>Full Name</t>
   </si>
@@ -49,9 +49,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Foulen El Fouleni</t>
-  </si>
-  <si>
     <t>bouden eya</t>
   </si>
   <si>
@@ -61,12 +58,12 @@
     <t>Med Amine Allani</t>
   </si>
   <si>
+    <t>Mohamed akram bouzaiane</t>
+  </si>
+  <si>
     <t>Rani ZOUAOUI</t>
   </si>
   <si>
-    <t>1234678.0</t>
-  </si>
-  <si>
     <t>94252435.0</t>
   </si>
   <si>
@@ -76,12 +73,12 @@
     <t>53265593.0</t>
   </si>
   <si>
+    <t>27910734.0</t>
+  </si>
+  <si>
     <t>99548790.0</t>
   </si>
   <si>
-    <t>foulenEl.fouleni@email.com</t>
-  </si>
-  <si>
     <t>eyabou22@gmail.com</t>
   </si>
   <si>
@@ -91,12 +88,12 @@
     <t>medamineallani@gmail.com</t>
   </si>
   <si>
+    <t>mohamedakrambouzaiane@gmail.com</t>
+  </si>
+  <si>
     <t>ranizouaouicontact@gmail.com</t>
   </si>
   <si>
-    <t>https://facebook.com/foulen.fouleni or Foulen Fouleni</t>
-  </si>
-  <si>
     <t>https://www.facebook.com/eya22T/</t>
   </si>
   <si>
@@ -109,19 +106,13 @@
     <t>https://www.facebook.com/rani.zouaoui.775</t>
   </si>
   <si>
-    <t>2021-09-30 13:35:00</t>
-  </si>
-  <si>
     <t>done</t>
   </si>
   <si>
-    <t>A205 ou El Local</t>
-  </si>
-  <si>
     <t>local</t>
   </si>
   <si>
-    <t>Ilyes Helal</t>
+    <t>salle</t>
   </si>
   <si>
     <t>ilyes</t>
@@ -130,12 +121,12 @@
     <t>mariem</t>
   </si>
   <si>
+    <t>mariem najjar+fatma</t>
+  </si>
+  <si>
     <t>malek bokri</t>
   </si>
   <si>
-    <t>Yes = Accepted No + Red Color Column = Denied</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
@@ -145,16 +136,7 @@
     <t>NO</t>
   </si>
   <si>
-    <t>HLP HR</t>
-  </si>
-  <si>
-    <t>2000-02-19 00:00:00</t>
-  </si>
-  <si>
     <t>2002-05-27 00:00:00</t>
-  </si>
-  <si>
-    <t>In other clubs / other informations</t>
   </si>
 </sst>
 </file>
@@ -583,25 +565,13 @@
         <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" t="s">
         <v>33</v>
       </c>
-      <c r="H2" t="s">
-        <v>35</v>
-      </c>
       <c r="I2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -617,16 +587,19 @@
       <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" t="s">
         <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" t="s">
-        <v>36</v>
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
       </c>
       <c r="I3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" t="s">
         <v>40</v>
       </c>
     </row>
@@ -643,20 +616,20 @@
       <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" t="s">
         <v>34</v>
       </c>
       <c r="I4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K4" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -672,20 +645,17 @@
       <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" t="s">
         <v>32</v>
       </c>
-      <c r="G5" t="s">
-        <v>34</v>
-      </c>
       <c r="H5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -702,27 +672,26 @@
         <v>25</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
         <v>30</v>
       </c>
-      <c r="F6" t="s">
-        <v>32</v>
-      </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
-    <hyperlink ref="E5" r:id="rId3"/>
-    <hyperlink ref="E6" r:id="rId4"/>
+    <hyperlink ref="E4" r:id="rId2"/>
+    <hyperlink ref="E6" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
